--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC488831-3D61-4A37-9F88-5E657247C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F48495-511C-4CF4-BE25-42C84A08908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="825" windowWidth="25035" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26700" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="regulatory_values" sheetId="2" r:id="rId2"/>
+    <sheet name="static_regulatory_values" sheetId="2" r:id="rId2"/>
     <sheet name="pick_list" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -521,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,9 +610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,6 +630,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,27 +943,28 @@
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -953,7 +976,7 @@
       <c r="I1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -992,7 +1015,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="4"/>
@@ -1204,7 +1227,7 @@
       <c r="H15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.86</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -1247,33 +1270,33 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:10" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="22">
         <v>0.96</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="22">
         <v>0.96</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1438,7 +1461,7 @@
       <c r="D27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>0.998</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1450,7 +1473,7 @@
       <c r="H27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0.997</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -1518,7 +1541,7 @@
       <c r="D31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>0.92200000000000004</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -1530,7 +1553,7 @@
       <c r="H31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>0.92200000000000004</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -1548,7 +1571,7 @@
       <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>0.85</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -1556,7 +1579,7 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1600,7 +1623,7 @@
       <c r="D35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0.97799999999999998</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1612,7 +1635,7 @@
       <c r="H35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
         <v>0.98599999999999999</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -1632,1026 +1655,1026 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="26.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
-    <col min="8" max="9" width="26.5703125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="9" width="26.5703125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>750</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>87</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>6</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>14</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>4300</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>10</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>50</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="G8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>100</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="G9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>2000</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="G10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="G12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>100</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="G13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>750</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="G14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>5</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="G15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>10</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="16" t="s">
+      <c r="G16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>10</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="16" t="s">
+      <c r="G17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>100</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="16" t="s">
+      <c r="G18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>100</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="G19" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>50</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="16" t="s">
+      <c r="G20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>200</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="16" t="s">
+      <c r="G21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>5000</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="16" t="s">
+      <c r="G24" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>50</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="16" t="s">
+      <c r="G25" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>5000</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="16" t="s">
+      <c r="G26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>10</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="16" t="s">
+      <c r="G27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>100</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="16" t="s">
+      <c r="G28" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>200</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="16" t="s">
+      <c r="G29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>50</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="16" t="s">
+      <c r="G34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>10</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="16" t="s">
+      <c r="G35" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>20</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="16" t="s">
+      <c r="G36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="16" t="s">
+      <c r="A40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>2</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="16" t="s">
+      <c r="G40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="15">
         <v>100</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" s="16" t="s">
+      <c r="G47" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <v>2000</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="16" t="s">
+      <c r="G49" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2684,7 +2707,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
     </row>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F48495-511C-4CF4-BE25-42C84A08908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C7E27-C7B2-463C-942C-01196AEFEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26700" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29385" yWindow="-7080" windowWidth="26790" windowHeight="12690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="static_regulatory_values" sheetId="2" r:id="rId2"/>
-    <sheet name="pick_list" sheetId="3" r:id="rId3"/>
+    <sheet name="static_regulatory_values" sheetId="2" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="calculated_regulatory_values" sheetId="4" r:id="rId4"/>
+    <sheet name="pick_list" sheetId="3" r:id="rId5"/>
+    <sheet name="questions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -433,9 +436,6 @@
     <t>ug/l</t>
   </si>
   <si>
-    <t>chromium</t>
-  </si>
-  <si>
     <t>chromium (total), as distinct from other chemical forms</t>
   </si>
   <si>
@@ -446,6 +446,48 @@
   </si>
   <si>
     <t>potassium</t>
+  </si>
+  <si>
+    <t>static or dynamic</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>distinguish between TR and D</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>In the original toxicbooks.xls, for the three columns of static values (drinking water, stockwater, I rrigation water); does this value represent total?</t>
+  </si>
+  <si>
+    <t>sample_fraction</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Dissolved</t>
+  </si>
+  <si>
+    <t>All ADEC Values acquired from https://dec.alaska.gov/water/water-quality/standards/</t>
+  </si>
+  <si>
+    <t>conversion_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(e^1.0166(ln hardness)-3.924) </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>--&gt; see pg 29 of adec criteria manual at https://dec.alaska.gov/water/water-quality/standards/</t>
   </si>
 </sst>
 </file>
@@ -586,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -649,6 +691,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,734 +982,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5">
-        <v>750</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>340</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="4">
-        <v>150</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5">
-        <v>860000</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5">
-        <v>230000</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.316</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.96</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0.96</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
-        <v>4000</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4">
-        <v>100</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.998</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0.997</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4">
-        <v>50</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="4">
-        <v>5</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1671,7 +1003,7 @@
     <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>73</v>
       </c>
@@ -1729,7 +1061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
@@ -1758,7 +1090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
@@ -1784,7 +1116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -1810,7 +1142,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -1836,7 +1168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
@@ -1862,7 +1194,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
@@ -1888,7 +1220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
@@ -1914,7 +1246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -1940,7 +1272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C11" s="16" t="s">
         <v>84</v>
       </c>
@@ -1948,7 +1280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
@@ -1973,8 +1305,11 @@
       <c r="J12" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="O12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
@@ -2000,7 +1335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
@@ -2026,7 +1361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
@@ -2052,7 +1387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -2109,7 +1444,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>70</v>
@@ -2127,7 +1462,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>120</v>
@@ -2138,7 +1473,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>70</v>
@@ -2391,7 +1726,7 @@
         <v>73</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>95</v>
@@ -2419,7 +1754,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>97</v>
@@ -2433,7 +1768,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>98</v>
@@ -2696,7 +2031,1211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524EC06-ADD2-401E-AE7E-9D4059DEE3B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5">
+        <v>750</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>340</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>150</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5">
+        <v>860000</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5">
+        <v>230000</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.316</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4">
+        <v>11</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.96</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0.96</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4">
+        <v>100</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.998</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.997</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B77331-D835-4B41-9157-C8D156985AE1}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="62.85546875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="E12" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="16"/>
+      <c r="D17" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -2754,4 +3293,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80039399-BA6C-4D9A-804C-21A5BB782000}">
+  <dimension ref="A6:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C7E27-C7B2-463C-942C-01196AEFEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="-7080" windowWidth="26790" windowHeight="12690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="585" windowWidth="21600" windowHeight="14670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="static_regulatory_values" sheetId="2" r:id="rId1"/>
-    <sheet name="ReadMe" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="calculated_regulatory_values" sheetId="4" r:id="rId4"/>
+    <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
+    <sheet name="static_regulatory_values" sheetId="2" r:id="rId2"/>
+    <sheet name="calculated_regulatory_values" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
     <sheet name="pick_list" sheetId="3" r:id="rId5"/>
     <sheet name="questions" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="147">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -488,6 +489,18 @@
   </si>
   <si>
     <t>--&gt; see pg 29 of adec criteria manual at https://dec.alaska.gov/water/water-quality/standards/</t>
+  </si>
+  <si>
+    <t>set up in dplyr read in way</t>
+  </si>
+  <si>
+    <t>Chromium III</t>
+  </si>
+  <si>
+    <t>Chr</t>
+  </si>
+  <si>
+    <t>all units in micrograms per liter (ug/L)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +574,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -691,18 +710,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,6 +1004,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524EC06-ADD2-401E-AE7E-9D4059DEE3B4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
@@ -2031,19 +2078,812 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524EC06-ADD2-401E-AE7E-9D4059DEE3B4}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B77331-D835-4B41-9157-C8D156985AE1}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18" style="24" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8038DA-5443-4C6F-A4A9-CF8645419CF8}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
+      <c r="A1" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2891,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80039399-BA6C-4D9A-804C-21A5BB782000}">
+  <dimension ref="A6:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -2908,414 +3773,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B77331-D835-4B41-9157-C8D156985AE1}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="62.85546875" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="E12" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="16"/>
-      <c r="D17" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80039399-BA6C-4D9A-804C-21A5BB782000}">
-  <dimension ref="A6:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91C77E7-F620-43D1-A12F-2E293D2EBAA9}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="585" windowWidth="21600" windowHeight="14670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2775" windowWidth="26370" windowHeight="12705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="146">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>--&gt; see pg 29 of adec criteria manual at https://dec.alaska.gov/water/water-quality/standards/</t>
-  </si>
-  <si>
-    <t>set up in dplyr read in way</t>
   </si>
   <si>
     <t>Chromium III</t>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2080,11 +2077,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B77331-D835-4B41-9157-C8D156985AE1}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,12 +2095,12 @@
     <col min="7" max="7" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>66</v>
       </c>
@@ -2125,11 +2122,8 @@
       <c r="G2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
@@ -2172,7 +2166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -2192,7 +2186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -2215,7 +2209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
@@ -2258,7 +2252,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -2301,7 +2295,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>73</v>
       </c>
@@ -2321,7 +2315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
@@ -2344,7 +2338,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
@@ -2387,7 +2381,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
@@ -2407,7 +2401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -2788,7 +2782,7 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>66</v>
       </c>
@@ -2817,12 +2811,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,23 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91C77E7-F620-43D1-A12F-2E293D2EBAA9}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2126A698-32E5-4D40-A258-574FB9787024}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2775" windowWidth="26370" windowHeight="12705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26490" yWindow="2565" windowWidth="26385" windowHeight="12120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
     <sheet name="static_regulatory_values" sheetId="2" r:id="rId2"/>
     <sheet name="calculated_regulatory_values" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="diss_metals_hard_parameters" sheetId="9" r:id="rId4"/>
     <sheet name="pick_list" sheetId="3" r:id="rId5"/>
     <sheet name="questions" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="158">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -494,10 +505,46 @@
     <t>Chromium III</t>
   </si>
   <si>
-    <t>Chr</t>
-  </si>
-  <si>
     <t>all units in micrograms per liter (ug/L)</t>
+  </si>
+  <si>
+    <t>m_a</t>
+  </si>
+  <si>
+    <t>b_a</t>
+  </si>
+  <si>
+    <t>m_c</t>
+  </si>
+  <si>
+    <t>b_c</t>
+  </si>
+  <si>
+    <t>fw_acute_convert</t>
+  </si>
+  <si>
+    <t>fw_chronic_convert</t>
+  </si>
+  <si>
+    <t>Chromium VI</t>
+  </si>
+  <si>
+    <t>[MERCURY]</t>
+  </si>
+  <si>
+    <t>[0.85]</t>
+  </si>
+  <si>
+    <t>1.46203 -[(ln hardness)(0.145712)]</t>
+  </si>
+  <si>
+    <t>1.136672-[(ln hardness) (0.041838)]</t>
+  </si>
+  <si>
+    <t>From page 29 of Alaska Water Quality Criteria Manual for Toxic and other Deleterious Organic and Inorganic Substances (page 29)</t>
+  </si>
+  <si>
+    <t>characteristic_name</t>
   </si>
 </sst>
 </file>
@@ -737,6 +784,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,7 +1068,7 @@
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2079,9 +2130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B77331-D835-4B41-9157-C8D156985AE1}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,53 +2821,255 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8038DA-5443-4C6F-A4A9-CF8645419CF8}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-3.9239999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.7409</v>
+      </c>
+      <c r="F4">
+        <v>-4.7190000000000003</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D5">
+        <v>3.7256</v>
+      </c>
+      <c r="E5">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.316</v>
+      </c>
+      <c r="H5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="D7">
+        <v>-1.7</v>
+      </c>
+      <c r="E7">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="F7">
+        <v>-1.702</v>
+      </c>
+      <c r="G7">
+        <v>0.96</v>
+      </c>
+      <c r="H7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-1.46</v>
+      </c>
+      <c r="E8">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="F8">
+        <v>-4.7050000000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D10">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F10">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.998</v>
+      </c>
+      <c r="H10">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>1.72</v>
+      </c>
+      <c r="D11">
+        <v>-6.59</v>
+      </c>
+      <c r="G11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="F12">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.98599999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2126A698-32E5-4D40-A258-574FB9787024}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142A8BEA-A097-4E17-B4C7-15753667DA4C}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="2565" windowWidth="26385" windowHeight="12120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1305" windowWidth="21600" windowHeight="12720" tabRatio="795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="158">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -2824,7 +2824,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,6 +3013,9 @@
       <c r="A10" t="s">
         <v>94</v>
       </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
       <c r="C10">
         <v>0.84599999999999997</v>
       </c>
@@ -3034,6 +3037,9 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
       <c r="C11">

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142A8BEA-A097-4E17-B4C7-15753667DA4C}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA0EADAD-E491-4387-B693-5E38B4989DD4}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1305" windowWidth="21600" windowHeight="12720" tabRatio="795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26805" yWindow="1425" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="168">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -545,6 +545,38 @@
   </si>
   <si>
     <t>characteristic_name</t>
+  </si>
+  <si>
+    <t>BTEX</t>
+  </si>
+  <si>
+    <t>aquaculture</t>
+  </si>
+  <si>
+    <t>18 AAC 70</t>
+  </si>
+  <si>
+    <t>BM 20231129</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/system/files/documents/2023-05/akwqs-chapter70-2023.pdf</t>
+  </si>
+  <si>
+    <t>Benzene, toluene, ethyl benzene, xylenes mix</t>
+  </si>
+  <si>
+    <t>No general standard, but see 18 AAC 70.236(b)
+WATERSHED, Anchorage WWTP, 1.9 μg/l (acute)
+measured as dissolved metal</t>
+  </si>
+  <si>
+    <t>part of BTEX</t>
+  </si>
+  <si>
+    <t>https://dec.alaska.gov/media/q5njdzbc/alaska-water-quality-criteria-manual-for-toxic-and-other-deleterious-organic-and-inorganic-substances-2022.pdf</t>
+  </si>
+  <si>
+    <t>Total Nitrate and Nitrite (as nitrogen)</t>
   </si>
 </sst>
 </file>
@@ -554,7 +586,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +657,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -691,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -769,6 +806,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,10 +825,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,11 +1115,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1132,8 @@
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="15"/>
     <col min="8" max="9" width="26.5703125" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="10" max="10" width="17.42578125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1460,26 +1498,29 @@
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>7</v>
+      <c r="B15" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="F15" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>80</v>
+        <v>160</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
@@ -1493,10 +1534,10 @@
         <v>86</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F16" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>124</v>
@@ -1519,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="15">
         <v>10</v>
@@ -1534,21 +1575,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="15">
         <v>10</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="15">
-        <v>100</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>124</v>
@@ -1556,9 +1597,6 @@
       <c r="H18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="J18" s="15" t="s">
         <v>120</v>
       </c>
@@ -1574,7 +1612,7 @@
         <v>70</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F19" s="15">
         <v>100</v>
@@ -1585,25 +1623,28 @@
       <c r="H19" s="15" t="s">
         <v>80</v>
       </c>
+      <c r="I19" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="J19" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>87</v>
+      <c r="B20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F20" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>124</v>
@@ -1620,16 +1661,16 @@
         <v>73</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>124</v>
@@ -1642,8 +1683,26 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="15">
+        <v>200</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>120</v>
@@ -1651,53 +1710,35 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C23" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>80</v>
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="15">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>124</v>
@@ -1720,13 +1761,10 @@
         <v>92</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="F26" s="15">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>124</v>
@@ -1743,16 +1781,19 @@
         <v>73</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>119</v>
       </c>
+      <c r="E27" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="F27" s="15">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>124</v>
@@ -1769,16 +1810,16 @@
         <v>73</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F28" s="15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>124</v>
@@ -1801,10 +1842,10 @@
         <v>94</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F29" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>124</v>
@@ -1821,10 +1862,22 @@
         <v>73</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="15">
+        <v>200</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>120</v>
@@ -1834,11 +1887,11 @@
       <c r="A31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>96</v>
+      <c r="B31" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>120</v>
@@ -1848,11 +1901,11 @@
       <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>127</v>
+      <c r="B32" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>120</v>
@@ -1862,11 +1915,11 @@
       <c r="A33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>128</v>
+      <c r="B33" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>120</v>
@@ -1876,23 +1929,11 @@
       <c r="A34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>28</v>
+      <c r="B34" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="15">
-        <v>50</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>120</v>
@@ -1909,10 +1950,10 @@
         <v>99</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F35" s="15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>124</v>
@@ -1935,10 +1976,10 @@
         <v>99</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>124</v>
@@ -1951,8 +1992,26 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="C37" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="15">
+        <v>20</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>120</v>
@@ -1960,49 +2019,55 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C38" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="C39" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="C40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="15">
-        <v>2</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C41" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="15">
+        <v>2</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>120</v>
@@ -2010,7 +2075,7 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C42" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>120</v>
@@ -2018,7 +2083,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C43" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>120</v>
@@ -2026,103 +2091,120 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C44" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="C45" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="15">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C46" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="C47" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="15">
-        <v>100</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="C48" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="15">
+        <v>100</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="C49" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>pick_list!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D24:D1048576 D1:D22</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2823,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8038DA-5443-4C6F-A4A9-CF8645419CF8}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3086,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,6 +3219,11 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA0EADAD-E491-4387-B693-5E38B4989DD4}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237E512B-E0FD-4A1C-A15D-AC096E426421}"/>
   <bookViews>
-    <workbookView xWindow="-26805" yWindow="1425" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="-2175" windowWidth="21420" windowHeight="13920" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="172">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -573,10 +573,22 @@
     <t>part of BTEX</t>
   </si>
   <si>
-    <t>https://dec.alaska.gov/media/q5njdzbc/alaska-water-quality-criteria-manual-for-toxic-and-other-deleterious-organic-and-inorganic-substances-2022.pdf</t>
-  </si>
-  <si>
     <t>Total Nitrate and Nitrite (as nitrogen)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>drinking_water_minimum</t>
+  </si>
+  <si>
+    <t>drinking_water_maximum</t>
+  </si>
+  <si>
+    <t>18 AAC 70 Water Quality Standards April 26, 2024</t>
+  </si>
+  <si>
+    <t>https://dec.alaska.gov/media/eovgrgs5/18-aac-70.pdf</t>
   </si>
 </sst>
 </file>
@@ -586,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +674,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -725,10 +745,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -810,8 +831,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -825,6 +848,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1115,18 +1142,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="15" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
@@ -2100,12 +2127,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>107</v>
@@ -2119,8 +2146,8 @@
       <c r="G45" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>166</v>
+      <c r="H45" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>161</v>
@@ -2202,9 +2229,57 @@
         <v>120</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="15">
+        <v>6</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H45" r:id="rId1" xr:uid="{CCC25BD0-B084-4035-97DA-BBC7C0D198E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{3C3A15DA-CD30-480C-BC36-5F04729807E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237E512B-E0FD-4A1C-A15D-AC096E426421}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="-2175" windowWidth="21420" windowHeight="13920" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="-2172" windowWidth="21420" windowHeight="13920" tabRatio="795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="questions" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,22 +578,22 @@
     <t>pH</t>
   </si>
   <si>
-    <t>drinking_water_minimum</t>
-  </si>
-  <si>
-    <t>drinking_water_maximum</t>
-  </si>
-  <si>
     <t>18 AAC 70 Water Quality Standards April 26, 2024</t>
   </si>
   <si>
     <t>https://dec.alaska.gov/media/eovgrgs5/18-aac-70.pdf</t>
+  </si>
+  <si>
+    <t>aquaculture_minimum</t>
+  </si>
+  <si>
+    <t>aquaculture_maximum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1116,21 +1115,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524EC06-ADD2-401E-AE7E-9D4059DEE3B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>144</v>
       </c>
@@ -1141,29 +1140,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="9" width="26.5703125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.109375" style="15"/>
+    <col min="2" max="2" width="26.109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="15"/>
+    <col min="8" max="9" width="26.5546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>73</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="C11" s="16" t="s">
         <v>84</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>73</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>73</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C23" s="16" t="s">
         <v>89</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>90</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>73</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>73</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>73</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>73</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>73</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>73</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>73</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>73</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>73</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>73</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>73</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>100</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>73</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C40" s="16" t="s">
         <v>102</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>73</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C42" s="16" t="s">
         <v>104</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C43" s="16" t="s">
         <v>105</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C44" s="16" t="s">
         <v>106</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>73</v>
       </c>
@@ -2147,13 +2146,13 @@
         <v>124</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C46" s="16" t="s">
         <v>108</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C47" s="16" t="s">
         <v>109</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>73</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="C49" s="16" t="s">
         <v>111</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>73</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>73</v>
       </c>
@@ -2240,16 +2239,16 @@
         <v>167</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F52" s="15">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
@@ -2260,23 +2259,23 @@
         <v>167</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F53" s="15">
         <v>8.5</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H63" s="15" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H45" r:id="rId1" xr:uid="{CCC25BD0-B084-4035-97DA-BBC7C0D198E2}"/>
+    <hyperlink ref="H45" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2284,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B77331-D835-4B41-9157-C8D156985AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2292,23 +2291,23 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="15"/>
+    <col min="2" max="2" width="26.109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="18" style="24" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>66</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>73</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>73</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>73</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>73</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>73</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>73</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>73</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>73</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>73</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>73</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>73</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
@@ -2956,19 +2955,19 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C37" s="16"/>
     </row>
   </sheetData>
@@ -2977,27 +2976,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8038DA-5443-4C6F-A4A9-CF8645419CF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>68</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3242,61 +3241,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -3307,21 +3306,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80039399-BA6C-4D9A-804C-21A5BB782000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -3332,7 +3331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -3340,20 +3339,20 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="76.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>129</v>
       </c>
@@ -3389,15 +3388,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -3515,7 +3514,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -3537,7 +3536,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3555,7 +3554,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -3591,7 +3590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -3641,7 +3640,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3661,7 +3660,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3721,7 +3720,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3797,7 +3796,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -3817,7 +3816,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -3837,7 +3836,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -3935,7 +3934,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -3953,7 +3952,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -4111,7 +4110,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -4131,7 +4130,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -4149,7 +4148,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="179">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>characteristic_name</t>
-  </si>
-  <si>
-    <t>BTEX</t>
   </si>
   <si>
     <t>aquaculture</t>
@@ -584,10 +581,34 @@
     <t>https://dec.alaska.gov/media/eovgrgs5/18-aac-70.pdf</t>
   </si>
   <si>
-    <t>aquaculture_minimum</t>
-  </si>
-  <si>
-    <t>aquaculture_maximum</t>
+    <t>static_metals</t>
+  </si>
+  <si>
+    <t>hydocarbons</t>
+  </si>
+  <si>
+    <t>hydrocarbons</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>nutrients</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>static_category</t>
+  </si>
+  <si>
+    <t>aquaculture_water</t>
+  </si>
+  <si>
+    <t>aquaculture_minimum_water</t>
+  </si>
+  <si>
+    <t>aquaculture_maximum_water</t>
   </si>
 </sst>
 </file>
@@ -1141,1141 +1162,1298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="15"/>
-    <col min="2" max="2" width="26.109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="15"/>
-    <col min="8" max="9" width="26.5546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="18.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="15"/>
+    <col min="3" max="3" width="26.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="15"/>
+    <col min="9" max="10" width="26.5546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="15">
         <v>750</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>87</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="15">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>14</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>4300</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="15">
         <v>50</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="15">
         <v>100</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>2000</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="C11" s="16" t="s">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="15">
+      <c r="G12" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="15">
         <v>100</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="K13" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="15">
         <v>750</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="F15" s="15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="K15" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="15">
         <v>5</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="H16" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="15">
         <v>10</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="15">
         <v>10</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="K18" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="15">
         <v>100</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="15">
+      <c r="G20" s="15">
         <v>100</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="H20" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <v>50</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="15">
+      <c r="G22" s="15">
         <v>200</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C23" s="16" t="s">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C24" s="16" t="s">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <v>5000</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="15">
+      <c r="G26" s="15">
         <v>50</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="15">
         <v>5000</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="15">
+      <c r="G28" s="15">
         <v>10</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="K28" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="15">
+      <c r="G29" s="15">
         <v>100</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="K29" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="15">
+      <c r="G30" s="15">
         <v>200</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="K30" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="K31" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>96</v>
+        <v>171</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="D32" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="K33" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="15">
+      <c r="G35" s="15">
         <v>50</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="I35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="K35" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="15">
+      <c r="G36" s="15">
         <v>10</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="I36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="K36" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="15">
+      <c r="G37" s="15">
         <v>20</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="K37" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C38" s="16" t="s">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="K38" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="J39" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="K44" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C40" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="15" t="s">
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="15">
-        <v>2</v>
-      </c>
-      <c r="G41" s="15" t="s">
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="15">
+        <v>100</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="I48" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="K48" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C42" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" s="15" t="s">
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" s="15" t="s">
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C44" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="15" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="15">
-        <v>10000</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="32" t="s">
+      <c r="D51" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C46" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C47" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="15">
-        <v>100</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C49" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="15">
+        <v>166</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="15">
         <v>8.5</v>
       </c>
-      <c r="H53" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H63" s="15" t="s">
+      <c r="I52" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I62" s="15" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H45" r:id="rId1"/>
+    <hyperlink ref="I45" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2288,7 +2466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,7 +3423,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3297,7 +3475,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +3514,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC640F5-1A12-4723-AF93-54493970D9DD}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="-2172" windowWidth="21420" windowHeight="13920" tabRatio="795" activeTab="1"/>
+    <workbookView xWindow="31875" yWindow="1065" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -20,28 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="185">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -609,12 +599,30 @@
   </si>
   <si>
     <t>aquaculture_maximum_water</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>secondary_water_recreation</t>
+  </si>
+  <si>
+    <t>harvest_aquatic_life</t>
+  </si>
+  <si>
+    <t>cfu/100ml</t>
+  </si>
+  <si>
+    <t>https://dec.alaska.gov/water/water-quality/standards/</t>
+  </si>
+  <si>
+    <t>BM 20250115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1136,21 +1144,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>144</v>
       </c>
@@ -1161,30 +1169,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="15"/>
-    <col min="3" max="3" width="26.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="15"/>
-    <col min="9" max="10" width="26.5546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="18.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="26.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="15"/>
+    <col min="9" max="10" width="26.5703125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>175</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>169</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>169</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>169</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>169</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>169</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>169</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>169</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>169</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>169</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>170</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>169</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>169</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>169</v>
       </c>
@@ -1584,7 +1592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>171</v>
       </c>
@@ -1616,7 +1624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>169</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>169</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>169</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>169</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>169</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>169</v>
       </c>
@@ -1793,7 +1801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>169</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>171</v>
       </c>
@@ -1833,47 +1841,59 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>172</v>
       </c>
+      <c r="B24" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="D24" s="16" t="s">
         <v>90</v>
       </c>
+      <c r="E24" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="15">
+        <v>400</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="K24" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>91</v>
+      <c r="D25" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="G25" s="15">
-        <v>5000</v>
+        <v>31</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>169</v>
       </c>
@@ -1881,16 +1901,16 @@
         <v>73</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="15">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>124</v>
@@ -1902,7 +1922,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>169</v>
       </c>
@@ -1916,13 +1936,10 @@
         <v>92</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G27" s="15">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>124</v>
@@ -1934,7 +1951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>169</v>
       </c>
@@ -1942,16 +1959,19 @@
         <v>73</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>119</v>
       </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="G28" s="15">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>124</v>
@@ -1963,7 +1983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>169</v>
       </c>
@@ -1971,16 +1991,16 @@
         <v>73</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G29" s="15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>124</v>
@@ -1992,7 +2012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>169</v>
       </c>
@@ -2006,10 +2026,10 @@
         <v>94</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G30" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>124</v>
@@ -2021,104 +2041,107 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="15">
+        <v>200</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>96</v>
+      <c r="C32" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>127</v>
+      <c r="C33" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>128</v>
+      <c r="C34" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>28</v>
+      <c r="C35" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="15">
-        <v>50</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>169</v>
       </c>
@@ -2132,10 +2155,10 @@
         <v>99</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G36" s="15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>124</v>
@@ -2147,7 +2170,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>169</v>
       </c>
@@ -2161,10 +2184,10 @@
         <v>99</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>124</v>
@@ -2176,254 +2199,260 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>169</v>
       </c>
+      <c r="B38" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="D38" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="15">
+        <v>20</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="D39" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" s="31" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>169</v>
       </c>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="D40" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="D41" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="15">
-        <v>2</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>169</v>
       </c>
+      <c r="B42" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D42" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="15">
+        <v>2</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>169</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="15">
-        <v>10000</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>167</v>
+        <v>106</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>173</v>
       </c>
+      <c r="B46" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="D46" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="15">
-        <v>100</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="15">
+        <v>100</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>166</v>
+        <v>32</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="G51" s="15">
-        <v>6.5</v>
+        <v>2000</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>174</v>
       </c>
@@ -2437,23 +2466,46 @@
         <v>166</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G52" s="15">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I62" s="15" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="15" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I45" r:id="rId1"/>
+    <hyperlink ref="I46" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2461,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2469,23 +2521,23 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="15"/>
-    <col min="2" max="2" width="26.109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="26.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="18" style="24" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>66</v>
       </c>
@@ -2508,7 +2560,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>73</v>
       </c>
@@ -2528,7 +2580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
@@ -2551,7 +2603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
@@ -2571,7 +2623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>73</v>
       </c>
@@ -2594,7 +2646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
@@ -2614,7 +2666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
@@ -2637,7 +2689,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
@@ -2657,7 +2709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -2680,7 +2732,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>73</v>
       </c>
@@ -2700,7 +2752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
@@ -2723,7 +2775,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
@@ -2743,7 +2795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>73</v>
       </c>
@@ -2766,7 +2818,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
@@ -2786,7 +2838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>73</v>
       </c>
@@ -2809,7 +2861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>73</v>
       </c>
@@ -2829,7 +2881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
@@ -2852,7 +2904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>73</v>
       </c>
@@ -2870,7 +2922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -2891,7 +2943,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>73</v>
       </c>
@@ -2909,7 +2961,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -2930,7 +2982,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>73</v>
       </c>
@@ -2948,7 +3000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>73</v>
       </c>
@@ -2969,7 +3021,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
@@ -2987,7 +3039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>73</v>
       </c>
@@ -3008,7 +3060,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>73</v>
       </c>
@@ -3026,7 +3078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>73</v>
       </c>
@@ -3047,7 +3099,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>73</v>
       </c>
@@ -3067,7 +3119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>73</v>
       </c>
@@ -3090,7 +3142,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>73</v>
       </c>
@@ -3110,7 +3162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>73</v>
       </c>
@@ -3133,19 +3185,19 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="16"/>
     </row>
-    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="16"/>
     </row>
-    <row r="35" spans="3:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="3:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="3:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="16"/>
     </row>
   </sheetData>
@@ -3154,27 +3206,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>68</v>
       </c>
@@ -3200,7 +3252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -3214,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3243,7 +3295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3269,7 +3321,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -3280,7 +3332,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -3306,7 +3358,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -3332,7 +3384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -3343,7 +3395,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3369,7 +3421,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -3386,7 +3438,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3419,61 +3471,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -3484,21 +3536,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A6:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -3509,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -3517,20 +3569,20 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="76.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>129</v>
       </c>
@@ -3566,15 +3618,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -3594,7 +3646,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -3616,7 +3668,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -3636,7 +3688,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -3672,7 +3724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -3692,7 +3744,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -3714,7 +3766,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3732,7 +3784,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -3768,7 +3820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -3796,7 +3848,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -3818,7 +3870,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3838,7 +3890,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -3872,7 +3924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3898,7 +3950,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3916,7 +3968,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -3950,7 +4002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3974,7 +4026,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -3994,7 +4046,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -4014,7 +4066,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -4048,7 +4100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4066,7 +4118,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -4084,7 +4136,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -4112,7 +4164,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -4130,7 +4182,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -4166,7 +4218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -4186,7 +4238,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -4206,7 +4258,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -4226,7 +4278,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -4262,7 +4314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -4288,7 +4340,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -4308,7 +4360,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -4326,7 +4378,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -4360,7 +4412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC640F5-1A12-4723-AF93-54493970D9DD}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33C3B079-7004-419E-8489-F8A9E5413390}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="1065" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="-1335" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="185">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Fecal Coliform</t>
-  </si>
-  <si>
-    <t>Iron</t>
   </si>
   <si>
     <t>Lead</t>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>BM 20250115</t>
+  </si>
+  <si>
+    <t>Benzene, toluene, ethyl benzene, xylenes mix</t>
   </si>
 </sst>
 </file>
@@ -1155,12 +1155,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1170,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1194,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>66</v>
@@ -1212,16 +1212,16 @@
         <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>79</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>75</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>73</v>
@@ -1247,7 +1247,7 @@
         <v>750</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>80</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>73</v>
@@ -1276,13 +1276,13 @@
         <v>87</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>76</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>73</v>
@@ -1302,13 +1302,13 @@
         <v>81</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="15">
         <v>6</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>80</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>73</v>
@@ -1331,13 +1331,13 @@
         <v>81</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="15">
         <v>14</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>80</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>73</v>
@@ -1360,13 +1360,13 @@
         <v>81</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="15">
         <v>4300</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>80</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>73</v>
@@ -1389,24 +1389,24 @@
         <v>82</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="15">
         <v>10</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>73</v>
@@ -1418,24 +1418,24 @@
         <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="15">
         <v>50</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>73</v>
@@ -1447,24 +1447,24 @@
         <v>82</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="15">
         <v>100</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>73</v>
@@ -1476,35 +1476,35 @@
         <v>83</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="15">
         <v>2000</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>84</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>73</v>
@@ -1516,19 +1516,19 @@
         <v>85</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="15">
         <v>4</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>33</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>73</v>
@@ -1548,24 +1548,24 @@
         <v>85</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="15">
         <v>100</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>73</v>
@@ -1574,59 +1574,59 @@
         <v>6</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="15">
         <v>750</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" s="15">
         <v>10</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>73</v>
@@ -1638,24 +1638,24 @@
         <v>86</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="15">
         <v>5</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>73</v>
@@ -1667,24 +1667,24 @@
         <v>86</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="15">
         <v>10</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>73</v>
@@ -1696,24 +1696,24 @@
         <v>86</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="15">
         <v>10</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>73</v>
@@ -1725,27 +1725,27 @@
         <v>70</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="15">
         <v>100</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>73</v>
@@ -1757,24 +1757,24 @@
         <v>70</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="15">
         <v>100</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>73</v>
@@ -1786,24 +1786,24 @@
         <v>87</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="15">
         <v>50</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>73</v>
@@ -1815,35 +1815,35 @@
         <v>88</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="15">
         <v>200</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>73</v>
@@ -1852,79 +1852,79 @@
         <v>90</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G24" s="15">
         <v>400</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="15">
         <v>31</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G26" s="15">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>73</v>
@@ -1933,88 +1933,88 @@
         <v>19</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>118</v>
       </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="G27" s="15">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G28" s="15">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G29" s="15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>73</v>
@@ -2023,127 +2023,127 @@
         <v>24</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G30" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="K31" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="G31" s="15">
-        <v>200</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>126</v>
+      <c r="C32" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>95</v>
       </c>
+      <c r="I32" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="K32" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>96</v>
+      <c r="C33" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="K33" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>97</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>128</v>
+      <c r="C35" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>98</v>
       </c>
+      <c r="E35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="15">
+        <v>50</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K35" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>73</v>
@@ -2152,27 +2152,27 @@
         <v>28</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G36" s="15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>73</v>
@@ -2181,184 +2181,166 @@
         <v>28</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="K38" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="15">
-        <v>20</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>100</v>
       </c>
+      <c r="J39" s="31" t="s">
+        <v>162</v>
+      </c>
       <c r="K39" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="K40" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>102</v>
       </c>
+      <c r="E41" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K41" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="15">
-        <v>2</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="K42" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>104</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>105</v>
       </c>
+      <c r="J44" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="K44" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>164</v>
+      <c r="E45" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="15">
-        <v>10000</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>167</v>
-      </c>
       <c r="K46" s="15" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
@@ -2369,143 +2351,132 @@
         <v>108</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>109</v>
       </c>
+      <c r="E48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="15">
+        <v>100</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K48" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="K49" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="G49" s="15">
-        <v>100</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>111</v>
       </c>
+      <c r="E50" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K50" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>112</v>
+        <v>165</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="G51" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>124</v>
+        <v>6.5</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="15">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" s="15">
-        <v>8.5</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I63" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="15" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I46" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I45" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2534,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -2551,13 +2522,13 @@
         <v>67</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2574,7 +2545,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>36</v>
@@ -2594,10 +2565,10 @@
         <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -2617,7 +2588,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>51</v>
@@ -2637,7 +2608,7 @@
         <v>74</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>51</v>
@@ -2654,13 +2625,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2674,13 +2645,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2697,13 +2668,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -2717,13 +2688,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -2746,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -2766,7 +2737,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -2789,7 +2760,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -2809,7 +2780,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -2826,13 +2797,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>40</v>
@@ -2846,13 +2817,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -2869,13 +2840,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
         <v>57</v>
@@ -2889,13 +2860,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
@@ -2916,7 +2887,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
@@ -2934,7 +2905,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -2955,7 +2926,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -2973,7 +2944,7 @@
         <v>74</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -2994,7 +2965,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -3012,7 +2983,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -3033,7 +3004,7 @@
         <v>74</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -3051,7 +3022,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -3072,7 +3043,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -3090,7 +3061,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
         <v>43</v>
@@ -3107,13 +3078,13 @@
         <v>32</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -3127,13 +3098,13 @@
         <v>32</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -3150,13 +3121,13 @@
         <v>32</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -3170,13 +3141,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3223,7 +3194,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -3231,25 +3202,25 @@
         <v>68</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3286,7 +3257,7 @@
         <v>-4.7190000000000003</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
@@ -3297,7 +3268,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -3323,7 +3294,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>0.98199999999999998</v>
@@ -3360,10 +3331,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>1.2729999999999999</v>
@@ -3378,7 +3349,7 @@
         <v>-4.7050000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -3386,21 +3357,21 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
         <v>152</v>
       </c>
-      <c r="G9" t="s">
-        <v>153</v>
-      </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0.84599999999999997</v>
@@ -3423,10 +3394,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>1.72</v>
@@ -3440,10 +3411,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>0.84730000000000005</v>
@@ -3497,37 +3468,37 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3547,12 +3518,12 @@
   <sheetData>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>34</v>
@@ -3628,7 +3599,7 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -3648,7 +3619,7 @@
     </row>
     <row r="5" spans="1:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -3670,7 +3641,7 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -3690,7 +3661,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -3726,7 +3697,7 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -3746,7 +3717,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3768,7 +3739,7 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -3786,7 +3757,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -3822,7 +3793,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -3850,7 +3821,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -3872,7 +3843,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -3892,7 +3863,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -3926,7 +3897,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -3952,7 +3923,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -3970,7 +3941,7 @@
     </row>
     <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>14</v>
@@ -4004,7 +3975,7 @@
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -4028,7 +3999,7 @@
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -4048,7 +4019,7 @@
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -4068,7 +4039,7 @@
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -4102,7 +4073,7 @@
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -4120,7 +4091,7 @@
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
@@ -4138,7 +4109,7 @@
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -4166,7 +4137,7 @@
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
@@ -4184,7 +4155,7 @@
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -4220,7 +4191,7 @@
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
@@ -4240,7 +4211,7 @@
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
@@ -4260,7 +4231,7 @@
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -4280,7 +4251,7 @@
     </row>
     <row r="31" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
@@ -4316,7 +4287,7 @@
     </row>
     <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
@@ -4342,7 +4313,7 @@
     </row>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
@@ -4362,7 +4333,7 @@
     </row>
     <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
@@ -4380,7 +4351,7 @@
     </row>
     <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33C3B079-7004-419E-8489-F8A9E5413390}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D8033A-B275-4C8E-9854-BD11F0DEEC58}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-1335" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="-1815" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="186">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>Benzene, toluene, ethyl benzene, xylenes mix</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1176,8 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2442,6 +2445,9 @@
       <c r="G51" s="15">
         <v>6.5</v>
       </c>
+      <c r="H51" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="I51" s="15" t="s">
         <v>167</v>
       </c>
@@ -2464,6 +2470,9 @@
       </c>
       <c r="G52" s="15">
         <v>8.5</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>167</v>

--- a/other/input/regulatory_limits/master_reg_limits.xlsx
+++ b/other/input/regulatory_limits/master_reg_limits.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D8033A-B275-4C8E-9854-BD11F0DEEC58}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F3222DCEA08A4C9A6976DB97F14DE766E6606446" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{009BD7B4-C43D-4DD9-AC85-F5B72744DDEF}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="-1815" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="3570" windowWidth="21600" windowHeight="11295" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="187">
   <si>
     <t>alkalinity (as CaCO3)</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>Toluene</t>
-  </si>
-  <si>
-    <t>Total Nitrate/Nitrite-N</t>
   </si>
   <si>
     <t>Total Phosphorus</t>
@@ -620,6 +617,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>Nitrate + Nitrite</t>
   </si>
 </sst>
 </file>
@@ -1158,12 +1161,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1180,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1200,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>66</v>
@@ -1215,16 +1218,16 @@
         <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>79</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>75</v>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>73</v>
@@ -1250,7 +1253,7 @@
         <v>750</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>80</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>73</v>
@@ -1279,13 +1282,13 @@
         <v>87</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>76</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>73</v>
@@ -1305,13 +1308,13 @@
         <v>81</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="15">
         <v>6</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>80</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>73</v>
@@ -1334,13 +1337,13 @@
         <v>81</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="15">
         <v>14</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>80</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>73</v>
@@ -1363,13 +1366,13 @@
         <v>81</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="15">
         <v>4300</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>80</v>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>73</v>
@@ -1392,24 +1395,24 @@
         <v>82</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="15">
         <v>10</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>73</v>
@@ -1421,24 +1424,24 @@
         <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="15">
         <v>50</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>73</v>
@@ -1450,24 +1453,24 @@
         <v>82</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="15">
         <v>100</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>73</v>
@@ -1479,35 +1482,35 @@
         <v>83</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="15">
         <v>2000</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>84</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>73</v>
@@ -1519,19 +1522,19 @@
         <v>85</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="15">
         <v>4</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>33</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>73</v>
@@ -1551,24 +1554,24 @@
         <v>85</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="15">
         <v>100</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>73</v>
@@ -1577,59 +1580,59 @@
         <v>6</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="15">
         <v>750</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="15">
         <v>10</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>73</v>
@@ -1641,24 +1644,24 @@
         <v>86</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="15">
         <v>5</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>73</v>
@@ -1670,24 +1673,24 @@
         <v>86</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="15">
         <v>10</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>73</v>
@@ -1699,24 +1702,24 @@
         <v>86</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="15">
         <v>10</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>73</v>
@@ -1728,27 +1731,27 @@
         <v>70</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="15">
         <v>100</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>73</v>
@@ -1760,24 +1763,24 @@
         <v>70</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="15">
         <v>100</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>73</v>
@@ -1789,24 +1792,24 @@
         <v>87</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="15">
         <v>50</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>73</v>
@@ -1818,35 +1821,35 @@
         <v>88</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="15">
         <v>200</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>73</v>
@@ -1855,50 +1858,50 @@
         <v>90</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="15">
         <v>400</v>
       </c>
       <c r="H24" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="15">
         <v>31</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>73</v>
@@ -1910,24 +1913,24 @@
         <v>91</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="15">
         <v>50</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>73</v>
@@ -1939,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>33</v>
@@ -1948,18 +1951,18 @@
         <v>5000</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>73</v>
@@ -1971,24 +1974,24 @@
         <v>92</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="15">
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>73</v>
@@ -2000,24 +2003,24 @@
         <v>93</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="15">
         <v>100</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>73</v>
@@ -2029,41 +2032,41 @@
         <v>93</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="15">
         <v>200</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>94</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>73</v>
@@ -2078,46 +2081,46 @@
         <v>33</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>96</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>97</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>73</v>
@@ -2129,24 +2132,24 @@
         <v>98</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="15">
         <v>50</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>73</v>
@@ -2158,24 +2161,24 @@
         <v>98</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="15">
         <v>10</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>73</v>
@@ -2187,35 +2190,35 @@
         <v>98</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="15">
         <v>20</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>99</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>73</v>
@@ -2224,26 +2227,26 @@
         <v>100</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>101</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>73</v>
@@ -2255,111 +2258,111 @@
         <v>102</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="15">
         <v>2</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>103</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>104</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>105</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="15">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>73</v>
@@ -2368,38 +2371,38 @@
         <v>31</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48" s="15">
         <v>100</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>73</v>
@@ -2408,74 +2411,74 @@
         <v>32</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G50" s="15">
         <v>2000</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G51" s="15">
         <v>6.5</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G52" s="15">
         <v>8.5</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2514,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -2531,13 +2534,13 @@
         <v>67</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,7 +2557,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>36</v>
@@ -2574,10 +2577,10 @@
         <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -2597,7 +2600,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>51</v>
@@ -2617,7 +2620,7 @@
         <v>74</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>51</v>
@@ -2634,13 +2637,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -2654,13 +2657,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -2677,13 +2680,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -2697,13 +2700,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -2726,7 +2729,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -2746,7 +2749,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -2769,7 +2772,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -2789,7 +2792,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -2812,7 +2815,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>40</v>
@@ -2832,7 +2835,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -2855,7 +2858,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
         <v>57</v>
@@ -2875,7 +2878,7 @@
         <v>74</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
@@ -2896,7 +2899,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
@@ -2914,7 +2917,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -2935,7 +2938,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -2953,7 +2956,7 @@
         <v>74</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -2974,7 +2977,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2992,7 +2995,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -3013,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -3031,7 +3034,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -3052,7 +3055,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
@@ -3070,7 +3073,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
         <v>43</v>
@@ -3087,13 +3090,13 @@
         <v>32</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -3107,13 +3110,13 @@
         <v>32</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -3130,13 +3133,13 @@
         <v>32</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -3150,13 +3153,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3203,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -3211,25 +3214,25 @@
         <v>68</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3266,7 +3269,7 @@
         <v>-4.7190000000000003</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
@@ -3277,7 +3280,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6">
         <v>0.98199999999999998</v>
@@ -3358,7 +3361,7 @@
         <v>-4.7050000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -3366,13 +3369,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
         <v>151</v>
       </c>
-      <c r="G9" t="s">
-        <v>152</v>
-      </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3420,10 +3423,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12">
         <v>0.84730000000000005</v>
@@ -3477,37 +3480,37 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3527,12 +3530,12 @@
   <sheetData>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="19" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>34</v>
@@ -3608,7 +3611,7 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -3628,7 +3631,7 @@
     </row>
     <row r="5" spans="1:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -3670,7 +3673,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -3706,7 +3709,7 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -3726,7 +3729,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -3852,7 +3855,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -3950,7 +3953,7 @@
     </row>
     <row r="18" spans="1:12" s="23" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>14</v>
@@ -3984,7 +3987,7 @@
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -4008,7 +4011,7 @@
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -4028,7 +4031,7 @@
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -4100,7 +4103,7 @@
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
@@ -4118,7 +4121,7 @@
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
@@ -4164,7 +4167,7 @@
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -4260,7 +4263,7 @@
     </row>
     <row r="31" spans="1:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
@@ -4322,7 +4325,7 @@
     </row>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
